--- a/coling2016/props/data-distributions.xlsx
+++ b/coling2016/props/data-distributions.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1360" windowWidth="29580" windowHeight="18620" tabRatio="630"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="630"/>
   </bookViews>
   <sheets>
-    <sheet name="Level-0" sheetId="8" r:id="rId1"/>
-    <sheet name="all-scores" sheetId="9" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="12" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="13" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId1"/>
+    <sheet name="Level-0" sheetId="8" r:id="rId2"/>
+    <sheet name="all-scores" sheetId="9" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="207">
   <si>
     <t>Baby Products</t>
   </si>
@@ -625,6 +626,24 @@
   </si>
   <si>
     <t>Wine_&amp;_Bar_Tools_30612&gt;Kitchen_&amp;_Dining_30600&gt;Home_Furniture_&amp;_Patio_30000&gt;ROOT_0</t>
+  </si>
+  <si>
+    <t>Ebates earlier</t>
+  </si>
+  <si>
+    <t>Home, Furniture and Patio</t>
+  </si>
+  <si>
+    <t>Jewelry Watches</t>
+  </si>
+  <si>
+    <t>Bag, Handbags and Accessories</t>
+  </si>
+  <si>
+    <t>Sports Fitness</t>
+  </si>
+  <si>
+    <t>Baby Kids Clothes</t>
   </si>
 </sst>
 </file>
@@ -706,7 +725,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="558">
+  <cellStyleXfs count="564">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1265,8 +1284,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1277,8 +1302,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="558">
+  <cellStyles count="564">
     <cellStyle name="Comma 2" xfId="95"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1558,6 +1584,9 @@
     <cellStyle name="Followed Hyperlink" xfId="553" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="555" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="563" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1836,6 +1865,9 @@
     <cellStyle name="Hyperlink" xfId="552" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="554" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="556" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="558" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="560" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="562" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1897,6 +1929,1615 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Toys</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.74874E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Home, Furniture and Patio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.4330825E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jewelry Watches</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.30577E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bag, Handbags and Accessories</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>867448.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Health, Beauty and Fragrance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="0000FF"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="4740000" scaled="0"/>
+              <a:tileRect/>
+            </a:gradFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.979519E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shoes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.025685E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Electronics and Computers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="A3DA1C"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="4C7F5E"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="4980000" scaled="0"/>
+              <a:tileRect/>
+            </a:gradFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.693035E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Office</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.191533E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sports Fitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="4860000" scaled="0"/>
+              <a:tileRect/>
+            </a:gradFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.412203E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Automotive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.68113E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Industrial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+              <a:tileRect/>
+            </a:gradFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.693015E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baby Products</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>169790.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baby Kids Clothes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>769801.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Men's Clothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>570766.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Women's Clothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>799571.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="-2131277032"/>
+        <c:axId val="2082547192"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="-2131277032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2082547192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2082547192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="50000.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="16000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2131277032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.483662023016354"/>
+          <c:y val="0.165188413948256"/>
+          <c:w val="0.342038548131559"/>
+          <c:h val="0.720081768625076"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" baseline="0"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Best Linear</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> Model vs Gradient Boosted Trees Precision Comparison</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0811568322652514"/>
+          <c:y val="0.086466017405719"/>
+          <c:w val="0.6508652098961"/>
+          <c:h val="0.439958705819667"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LogReg L1 Micro F1 Dec 2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+                <a:alpha val="88000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$56:$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Baby and Kids Clothes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Toys</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jewelry and Watches</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bags, Handbags and Accessories</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Health, Beauty and Fragrance</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Shoes</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Electronics and Computers</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Office</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sports and Fitness</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Automotive</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Industrial</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Baby Products</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Men's Clothing</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Women's Clothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$56:$C$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>89.034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.894</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.676</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.178</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.516</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.132</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.218</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.572</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88.794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88.236</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88.19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82.42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83.362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$D$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XGboost Micro F1 Dec 2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="A3DA1C">
+                <a:alpha val="84000"/>
+              </a:srgbClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$56:$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Baby and Kids Clothes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Toys</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jewelry and Watches</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bags, Handbags and Accessories</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Health, Beauty and Fragrance</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Shoes</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Electronics and Computers</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Office</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sports and Fitness</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Automotive</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Industrial</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Baby Products</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Men's Clothing</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Women's Clothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$D$56:$D$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>92.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.348</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.02800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.608</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.496</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.444</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94.754</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.13800000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89.672</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85.464</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85.468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$E$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LogReg L1 Micro F1 Jan 2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="D96A73">
+                <a:alpha val="88000"/>
+              </a:srgbClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$56:$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Baby and Kids Clothes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Toys</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jewelry and Watches</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bags, Handbags and Accessories</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Health, Beauty and Fragrance</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Shoes</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Electronics and Computers</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Office</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sports and Fitness</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Automotive</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Industrial</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Baby Products</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Men's Clothing</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Women's Clothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$E$56:$E$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>81.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85.23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90.42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84.27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>86.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$F$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xgboost Micro F1 Jan 2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9BBE39">
+                <a:alpha val="80000"/>
+              </a:srgbClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$56:$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Baby and Kids Clothes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Toys</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jewelry and Watches</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bags, Handbags and Accessories</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Health, Beauty and Fragrance</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Shoes</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Electronics and Computers</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Office</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sports and Fitness</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Automotive</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Industrial</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Baby Products</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Men's Clothing</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Women's Clothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$F$56:$F$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95.48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92.74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91.04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2131664056"/>
+        <c:axId val="-2131667416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2131664056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz" lIns="2" anchor="ctr" anchorCtr="1">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" cap="small" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2131667416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2131667416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
+          <c:min val="50.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175" cap="flat" cmpd="sng">
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="91000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="0" scaled="1"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" cap="small"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" cap="small"/>
+                  <a:t>Micro-F1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" cap="small" baseline="0"/>
+                  <a:t> on </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" cap="small" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>10%</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" cap="small" baseline="0"/>
+                  <a:t> Dev Set (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="0" cap="small" baseline="0"/>
+                  <a:t>Trained On 90% Data</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" cap="small" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600" cap="small"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0189277456020477"/>
+              <c:y val="0.0824338011176022"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2131664056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="4.0"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.737218715429166"/>
+          <c:y val="0.316083947167894"/>
+          <c:w val="0.251333897312423"/>
+          <c:h val="0.200920751841504"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'Level-0'!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -2635,12 +4276,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2144015496"/>
-        <c:axId val="-2144012808"/>
+        <c:axId val="-2133987336"/>
+        <c:axId val="-2133962328"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2144015496"/>
+        <c:axId val="-2133987336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2649,7 +4290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144012808"/>
+        <c:crossAx val="-2133962328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2657,7 +4298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144012808"/>
+        <c:axId val="-2133962328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50000.0"/>
@@ -2687,13 +4328,12 @@
             </a:outerShdw>
           </a:effectLst>
         </c:spPr>
-        <c:crossAx val="-2144015496"/>
+        <c:crossAx val="-2133987336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
           <c:dispUnitsLbl>
-            <c:layout/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -2760,7 +4400,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3268,11 +4908,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2102103416"/>
-        <c:axId val="-2102100472"/>
+        <c:axId val="-2133928792"/>
+        <c:axId val="-2133925848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2102103416"/>
+        <c:axId val="-2133928792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3281,7 +4921,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102100472"/>
+        <c:crossAx val="-2133925848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3289,7 +4929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102100472"/>
+        <c:axId val="-2133925848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3299,13 +4939,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102103416"/>
+        <c:crossAx val="-2133928792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="hundredThousands"/>
           <c:dispUnitsLbl>
-            <c:layout/>
             <c:tx>
               <c:rich>
                 <a:bodyPr/>
@@ -3337,7 +4976,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3504,12 +5143,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2134394200"/>
-        <c:axId val="-2134448648"/>
-        <c:axId val="-2134442904"/>
+        <c:axId val="-2131351800"/>
+        <c:axId val="-2131348824"/>
+        <c:axId val="-2131376392"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2134394200"/>
+        <c:axId val="-2131351800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3518,7 +5157,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134448648"/>
+        <c:crossAx val="-2131348824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3526,7 +5165,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134448648"/>
+        <c:axId val="-2131348824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3554,20 +5193,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134394200"/>
+        <c:crossAx val="-2131351800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.002"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2134442904"/>
+        <c:axId val="-2131376392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3576,7 +5214,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134448648"/>
+        <c:crossAx val="-2131348824"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -3616,7 +5254,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3802,12 +5440,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2134401080"/>
-        <c:axId val="2079515480"/>
-        <c:axId val="-2134291608"/>
+        <c:axId val="2082678856"/>
+        <c:axId val="2082681832"/>
+        <c:axId val="2082695016"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2134401080"/>
+        <c:axId val="2082678856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3816,7 +5454,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079515480"/>
+        <c:crossAx val="2082681832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3824,7 +5462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2079515480"/>
+        <c:axId val="2082681832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3847,19 +5485,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134401080"/>
+        <c:crossAx val="2082678856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2134291608"/>
+        <c:axId val="2082695016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3868,7 +5505,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079515480"/>
+        <c:crossAx val="2082681832"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -3908,7 +5545,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4098,11 +5735,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2108359448"/>
-        <c:axId val="2108524792"/>
+        <c:axId val="-2130842360"/>
+        <c:axId val="-2130839032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2108359448"/>
+        <c:axId val="-2130842360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4139,7 +5776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108524792"/>
+        <c:crossAx val="-2130839032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4147,7 +5784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108524792"/>
+        <c:axId val="-2130839032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4190,7 +5827,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108359448"/>
+        <c:crossAx val="-2130842360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4240,7 +5877,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4766,11 +6403,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2100978152"/>
-        <c:axId val="-2100974760"/>
+        <c:axId val="-2130783032"/>
+        <c:axId val="-2130779704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2100978152"/>
+        <c:axId val="-2130783032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4809,7 +6446,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2100974760"/>
+        <c:crossAx val="-2130779704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4817,7 +6454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2100974760"/>
+        <c:axId val="-2130779704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -4860,7 +6497,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2100978152"/>
+        <c:crossAx val="-2130783032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0"/>
@@ -4877,7 +6514,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4902,7 +6538,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5098,12 +6734,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2101029592"/>
-        <c:axId val="-2101026424"/>
+        <c:axId val="-2130748984"/>
+        <c:axId val="-2130745784"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2101029592"/>
+        <c:axId val="-2130748984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5136,7 +6772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101026424"/>
+        <c:crossAx val="-2130745784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5144,7 +6780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101026424"/>
+        <c:axId val="-2130745784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5175,20 +6811,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101029592"/>
+        <c:crossAx val="-2130748984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-          </c:dispUnitsLbl>
+          <c:dispUnitsLbl/>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5213,7 +6846,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5248,7 +6881,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5802,11 +7434,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2101144280"/>
-        <c:axId val="-2101140904"/>
+        <c:axId val="-2131609640"/>
+        <c:axId val="-2131612952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2101144280"/>
+        <c:axId val="-2131609640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5843,7 +7475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101140904"/>
+        <c:crossAx val="-2131612952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5851,7 +7483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101140904"/>
+        <c:axId val="-2131612952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -5962,795 +7594,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101144280"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="4.0"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.737218715429166"/>
-          <c:y val="0.316083947167894"/>
-          <c:w val="0.251333897312423"/>
-          <c:h val="0.200920751841504"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2400"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2400"/>
-              <a:t>Best Linear</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2400" baseline="0"/>
-              <a:t> Model vs Gradient Boosted Trees Precision Comparison</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="2400"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0811568322652514"/>
-          <c:y val="0.086466017405719"/>
-          <c:w val="0.6508652098961"/>
-          <c:h val="0.439958705819667"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$C$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LogReg L1 Micro F1 Dec 2015</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-                <a:alpha val="88000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet4!$B$56:$B$70</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>Baby and Kids Clothes</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Toys</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Furniture</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Jewelry and Watches</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Bags, Handbags and Accessories</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Health, Beauty and Fragrance</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Shoes</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Electronics and Computers</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Office</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sports and Fitness</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Automotive</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Industrial</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Baby Products</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Men's Clothing</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Women's Clothing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$C$56:$C$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>89.034</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>76.004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>84.002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80.894</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>81.676</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>82.178</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.516</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80.132</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>89.218</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>83.572</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>88.794</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>88.236</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>88.19</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>82.42</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>83.362</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$D$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>XGboost Micro F1 Dec 2015</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="A3DA1C">
-                <a:alpha val="84000"/>
-              </a:srgbClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet4!$B$56:$B$70</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>Baby and Kids Clothes</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Toys</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Furniture</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Jewelry and Watches</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Bags, Handbags and Accessories</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Health, Beauty and Fragrance</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Shoes</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Electronics and Computers</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Office</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sports and Fitness</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Automotive</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Industrial</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Baby Products</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Men's Clothing</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Women's Clothing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$D$56:$D$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>92.14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>81.348</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>88.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>86.02800000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85.002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>85.39</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>66.608</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>84.496</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>92.892</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>87.444</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>94.754</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>93.13800000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>89.672</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>85.464</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>85.468</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$E$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LogReg L1 Micro F1 Jan 2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="D96A73">
-                <a:alpha val="88000"/>
-              </a:srgbClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet4!$B$56:$B$70</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>Baby and Kids Clothes</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Toys</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Furniture</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Jewelry and Watches</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Bags, Handbags and Accessories</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Health, Beauty and Fragrance</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Shoes</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Electronics and Computers</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Office</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sports and Fitness</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Automotive</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Industrial</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Baby Products</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Men's Clothing</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Women's Clothing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$E$56:$E$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>81.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78.16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>84.86</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>82.05</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85.28</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>85.02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>73.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>82.69</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90.03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>85.23</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>89.57</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>90.42</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>90.08</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>84.27</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>86.39</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$F$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Xgboost Micro F1 Jan 2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="9BBE39">
-                <a:alpha val="80000"/>
-              </a:srgbClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet4!$B$56:$B$70</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>Baby and Kids Clothes</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Toys</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Furniture</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Jewelry and Watches</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Bags, Handbags and Accessories</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Health, Beauty and Fragrance</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Shoes</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Electronics and Computers</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Office</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Sports and Fitness</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Automotive</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Industrial</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Baby Products</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Men's Clothing</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Women's Clothing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$F$56:$F$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>88.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>84.88</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>91.22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>91.38</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90.23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90.43</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>79.42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>88.51</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>94.38</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90.62</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>95.55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>95.48</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>92.74</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>91.04</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>91.72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-2101090408"/>
-        <c:axId val="-2101087032"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2101090408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="bg2"/>
-          </a:solidFill>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="43000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-5400000" vert="horz" lIns="2" anchor="ctr" anchorCtr="1">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" cap="small" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2101087032"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2101087032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
-          <c:min val="50.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="3175" cap="flat" cmpd="sng">
-              <a:gradFill flip="none" rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="95000"/>
-                      <a:alpha val="91000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="0" scaled="1"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" cap="small"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" cap="small"/>
-                  <a:t>Micro-F1</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" cap="small" baseline="0"/>
-                  <a:t> on </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" cap="small" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>10%</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" cap="small" baseline="0"/>
-                  <a:t> Dev Set (</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="0" cap="small" baseline="0"/>
-                  <a:t>Trained On 90% Data</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" cap="small" baseline="0"/>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1600" cap="small"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.0189277456020477"/>
-              <c:y val="0.0824338011176022"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="bg2"/>
-          </a:solidFill>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="43000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" baseline="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2101090408"/>
+        <c:crossAx val="-2131609640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4.0"/>
@@ -6793,6 +7637,43 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6919,7 +7800,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7014,7 +7895,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7403,9 +8284,400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1748740</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="1">
+        <v>14330825</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1305770</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="1">
+        <v>867448</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2979519</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1025685</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3693035</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2191533</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1412203</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4681130</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2693015</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>169790</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="1">
+        <v>769801</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>570766</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>799571</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19:L94"/>
     </sheetView>
   </sheetViews>
@@ -8514,7 +9786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
@@ -9407,7 +10679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H80"/>
   <sheetViews>
@@ -9776,7 +11048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F70"/>
   <sheetViews>
